--- a/RANDY_JOLLY.xlsx
+++ b/RANDY_JOLLY.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -101,112 +104,157 @@
     <t xml:space="preserve">AP &amp; SOUTH</t>
   </si>
   <si>
+    <t xml:space="preserve">910-532-2746</t>
+  </si>
+  <si>
     <t xml:space="preserve">5560 WILDCAT RD, HARRELLS, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">SHP-Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOLLY, RANDY S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-271-1250</t>
+    <t xml:space="preserve">HP-East Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOLLY, RANDY S</t>
   </si>
   <si>
     <t xml:space="preserve">SPG240</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24444444444444446</t>
+    <t xml:space="preserve">0.22777777777777777</t>
   </si>
   <si>
     <t xml:space="preserve">BLACK RIVER BAREFOOT 38591</t>
   </si>
   <si>
+    <t xml:space="preserve">910-532-2758</t>
+  </si>
+  <si>
     <t xml:space="preserve">SR1105,1909 DR KERR RD, IVANHOE, NC</t>
   </si>
   <si>
+    <t xml:space="preserve">0.21458333333333335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK RIVER CLEAR RUN 4 38611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439B WHITFIELD LN, HARRELLS, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25138888888888888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK RIVER CLEAR RUN 5 38621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910 WHITFIELD LN, HARRELLS, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK RIVER GREEN 1 38791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-532-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1105, 1516 GREENE FARM LN, IVANHOE, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21111111111111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK RIVER GREEN 2 38801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-532-4755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400 GREENE FARM LN, IVANHOE, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21388888888888891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOONE FAMILY FARMS - SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-284-9175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1120, 162 HALLS POND RD, ROSE HILL, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITT HOG SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">919-658-9485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1316 - 1318, 212 RALPH BRITT FARM LN, MOUNT OLIVE, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18124999999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAIL, EDWARD SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">805 E NC-24 Kenasville, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOUBLE K FARMS 38691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HWY 411, 471 WYNE LN, HARRELLS, NC</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.24861111111111112</t>
   </si>
   <si>
-    <t xml:space="preserve">BLACK RIVER CLEAR RUN 4 38611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">439B WHITFIELD LN, HARRELLS, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20833333333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLACK RIVER CLEAR RUN 5 38621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910 WHITFIELD LN, HARRELLS, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLACK RIVER GREEN 1 38791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1105, 1516 GREENE FARM LN, IVANHOE, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25416666666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLACK RIVER GREEN 2 38801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400 GREENE FARM LN, IVANHOE, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOONE FAMILY FARMS - SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-284-9175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1120, 162 HALLS POND RD, ROSE HILL, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOUBLE K FARMS 38691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HWY 411, 471 WYNE LN, HARRELLS, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20555555555555557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hope Sow #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4520 FLEET COOPER RD, ROSEBORO, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:35: AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M&amp;D FARMS FARROWING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">353 TESSIE WALKER RD, BURGAW, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29930555555555555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHILLIPS PARTNERS (FARM 2803)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1308, 526 TEST FARM RD, WALLACE, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34722222222222227</t>
+    <t xml:space="preserve">SPEDDING, JEFF SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-372-8064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1921,990 HAMILTON RD, MAGNOLIA, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22638888888888889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAIRR 1 SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1188 VEACHES MILL RD, WARSAW, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20069444444444443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURNER SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1300, 160 FARROWWOOD LN, WARSAW, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16388888888888889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garland Sow Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2716 GARLAND AIRPORT ROAD, HARRELLS, NC 28441</t>
   </si>
 </sst>
 </file>
@@ -543,7 +591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
@@ -551,26 +599,27 @@
     <col min="4" max="4" width="29.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="41.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="15.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="56.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="18.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="14.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,668 +701,835 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
         <v>7081</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
         <v>38721</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J2"/>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" t="n">
-        <v>46</v>
-      </c>
-      <c r="O2"/>
+      <c r="N2"/>
+      <c r="O2" t="n">
+        <v>14</v>
+      </c>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2" t="n">
-        <v>14</v>
-      </c>
-      <c r="S2"/>
+      <c r="R2"/>
+      <c r="S2" t="n">
+        <v>46</v>
+      </c>
       <c r="T2"/>
       <c r="U2"/>
-      <c r="V2" t="n">
+      <c r="V2"/>
+      <c r="W2" t="n">
         <v>58</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>118</v>
       </c>
-      <c r="X2" t="n">
-        <v>2.26923076923077</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2"/>
+      <c r="Y2"/>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="n">
         <v>7082</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
         <v>38591</v>
       </c>
-      <c r="F3"/>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J3"/>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" t="n">
-        <v>21</v>
-      </c>
-      <c r="O3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
+        <v>79</v>
+      </c>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3" t="n">
-        <v>20</v>
-      </c>
-      <c r="S3"/>
+      <c r="R3"/>
+      <c r="S3" t="n">
+        <v>30</v>
+      </c>
       <c r="T3"/>
       <c r="U3"/>
-      <c r="V3" t="n">
-        <v>89</v>
-      </c>
+      <c r="V3"/>
       <c r="W3" t="n">
+        <v>21</v>
+      </c>
+      <c r="X3" t="n">
         <v>130</v>
       </c>
-      <c r="X3" t="n">
-        <v>2.09677419354839</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3"/>
+      <c r="Y3" t="n">
+        <v>2.06349206349206</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
         <v>7094</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>38611</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J4"/>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" t="n">
-        <v>70</v>
-      </c>
-      <c r="O4"/>
+      <c r="N4"/>
+      <c r="O4" t="n">
+        <v>140</v>
+      </c>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4" t="n">
-        <v>60</v>
-      </c>
-      <c r="S4"/>
+      <c r="R4"/>
+      <c r="S4" t="n">
+        <v>30</v>
+      </c>
       <c r="T4"/>
       <c r="U4"/>
-      <c r="V4" t="n">
-        <v>160</v>
-      </c>
+      <c r="V4"/>
       <c r="W4" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="X4" t="n">
-        <v>2.41666666666667</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4"/>
+        <v>235</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.28155339805825</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
         <v>7094</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
         <v>38621</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J5"/>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="n">
+      <c r="N5"/>
+      <c r="O5" t="n">
         <v>45</v>
       </c>
-      <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5" t="n">
-        <v>23</v>
-      </c>
-      <c r="S5"/>
+      <c r="R5"/>
+      <c r="S5" t="n">
+        <v>18</v>
+      </c>
       <c r="T5"/>
       <c r="U5"/>
-      <c r="V5" t="n">
-        <v>48</v>
-      </c>
+      <c r="V5"/>
       <c r="W5" t="n">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="X5" t="n">
-        <v>2.10909090909091</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5"/>
+        <v>108</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.17647058823529</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>7094</v>
+        <v>7082</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
         <v>38791</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J6"/>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
-      <c r="N6" t="n">
-        <v>20</v>
-      </c>
-      <c r="O6"/>
+      <c r="N6"/>
+      <c r="O6" t="n">
+        <v>80</v>
+      </c>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" t="n">
-        <v>35</v>
-      </c>
-      <c r="S6"/>
+      <c r="R6"/>
+      <c r="S6" t="n">
+        <v>40</v>
+      </c>
       <c r="T6"/>
       <c r="U6"/>
-      <c r="V6" t="n">
-        <v>95</v>
-      </c>
+      <c r="V6"/>
       <c r="W6" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="X6" t="n">
-        <v>2.14285714285714</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6"/>
+        <v>140</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.81818181818182</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>7094</v>
+        <v>7082</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
         <v>38801</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J7"/>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7" t="n">
-        <v>20</v>
-      </c>
-      <c r="O7"/>
+      <c r="N7"/>
+      <c r="O7" t="n">
+        <v>80</v>
+      </c>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" t="n">
-        <v>35</v>
-      </c>
-      <c r="S7"/>
+      <c r="R7"/>
+      <c r="S7" t="n">
+        <v>40</v>
+      </c>
       <c r="T7"/>
       <c r="U7"/>
-      <c r="V7" t="n">
-        <v>95</v>
-      </c>
+      <c r="V7"/>
       <c r="W7" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z7"/>
+        <v>140</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.33333333333333</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B8" t="n">
         <v>7092</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
         <v>6188</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="n">
         <v>30</v>
       </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="n">
-        <v>50</v>
-      </c>
-      <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="P8" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q8"/>
+      <c r="P8"/>
+      <c r="Q8" t="n">
+        <v>20</v>
+      </c>
       <c r="R8"/>
       <c r="S8"/>
-      <c r="T8" t="n">
-        <v>68</v>
-      </c>
-      <c r="U8"/>
+      <c r="T8"/>
+      <c r="U8" t="n">
+        <v>64</v>
+      </c>
       <c r="V8"/>
-      <c r="W8" t="n">
-        <v>140</v>
-      </c>
+      <c r="W8"/>
       <c r="X8" t="n">
-        <v>2.45614035087719</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z8"/>
+        <v>114</v>
+      </c>
+      <c r="Y8"/>
+      <c r="Z8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
         <v>7094</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E9" t="n">
-        <v>38691</v>
-      </c>
-      <c r="F9"/>
+        <v>3997</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J9"/>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
-      <c r="N9" t="n">
-        <v>42</v>
-      </c>
-      <c r="O9"/>
+      <c r="N9"/>
+      <c r="O9" t="n">
+        <v>60</v>
+      </c>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9" t="n">
-        <v>18</v>
-      </c>
-      <c r="S9"/>
+      <c r="R9"/>
+      <c r="S9" t="n">
+        <v>75</v>
+      </c>
       <c r="T9"/>
       <c r="U9"/>
-      <c r="V9" t="n">
-        <v>46</v>
-      </c>
+      <c r="V9"/>
       <c r="W9" t="n">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="X9" t="n">
-        <v>1.92727272727273</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z9"/>
+        <v>431</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.11274509803922</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B10" t="n">
         <v>7094</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
-        <v>2103</v>
+        <v>28121</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J10"/>
       <c r="K10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="n">
-        <v>196</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10" t="n">
-        <v>34</v>
-      </c>
+      <c r="O10" t="n">
+        <v>32</v>
+      </c>
+      <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10" t="n">
-        <v>30</v>
-      </c>
+      <c r="S10" t="n">
+        <v>75</v>
+      </c>
+      <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10" t="n">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="X10" t="n">
-        <v>2.47619047619048</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z10"/>
+        <v>137</v>
+      </c>
+      <c r="Y10"/>
+      <c r="Z10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n">
-        <v>7082</v>
+        <v>7094</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>68091</v>
+        <v>38691</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J11"/>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
-      <c r="N11" t="n">
-        <v>35</v>
-      </c>
-      <c r="O11"/>
+      <c r="N11"/>
+      <c r="O11" t="n">
+        <v>45</v>
+      </c>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11" t="n">
-        <v>19</v>
-      </c>
-      <c r="S11"/>
+      <c r="R11"/>
+      <c r="S11" t="n">
+        <v>18</v>
+      </c>
       <c r="T11"/>
       <c r="U11"/>
-      <c r="V11" t="n">
-        <v>61</v>
-      </c>
+      <c r="V11"/>
       <c r="W11" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="X11" t="n">
-        <v>2.25490196078431</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z11"/>
+        <v>108</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.0377358490566</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B12" t="n">
         <v>7092</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E12" t="n">
-        <v>28031</v>
-      </c>
-      <c r="F12"/>
+        <v>32961</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J12"/>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12" t="n">
-        <v>37</v>
-      </c>
+      <c r="M12" t="n">
+        <v>130</v>
+      </c>
+      <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12" t="n">
-        <v>35</v>
-      </c>
+      <c r="Q12" t="n">
+        <v>22</v>
+      </c>
+      <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12" t="n">
-        <v>192</v>
-      </c>
-      <c r="W12" t="n">
-        <v>264</v>
-      </c>
+      <c r="U12" t="n">
+        <v>96</v>
+      </c>
+      <c r="V12"/>
+      <c r="W12"/>
       <c r="X12" t="n">
-        <v>2.03076923076923</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z12"/>
+        <v>248</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.2962962962963</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7092</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2218</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13" t="n">
+        <v>370</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13" t="n">
+        <v>450</v>
+      </c>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13" t="n">
+        <v>270</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="Y13"/>
+      <c r="Z13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7068</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3851</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14" t="n">
+        <v>180</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14" t="n">
+        <v>90</v>
+      </c>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14" t="n">
+        <v>275</v>
+      </c>
+      <c r="X14" t="n">
+        <v>545</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.45495495495495</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7094</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3887</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15" t="n">
+        <v>20</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15" t="n">
+        <v>95</v>
+      </c>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
